--- a/excel2json/excel/ItemConfig.xlsx
+++ b/excel2json/excel/ItemConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity 2019.1.9\projects\darkestMoment\excel2json\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lichaowen\Documents\DarkestMoment\excel2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F88DFF6-B8E9-4D7B-9A44-0A759C5979D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027FCE99-47E0-4964-9D67-963E576EF64F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>配置名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,26 @@
   </si>
   <si>
     <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加一条生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>letter5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icons_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Props_10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -463,6 +483,9 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
@@ -477,7 +500,27 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="b">
         <v>0</v>
       </c>
     </row>

--- a/excel2json/excel/ItemConfig.xlsx
+++ b/excel2json/excel/ItemConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lichaowen\Documents\DarkestMoment\excel2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027FCE99-47E0-4964-9D67-963E576EF64F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4520E4E-50B1-4F28-BE6C-E7EDD5E356EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,11 +95,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icons_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Props_10</t>
+    <t>life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +428,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel2json/excel/ItemConfig.xlsx
+++ b/excel2json/excel/ItemConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lichaowen\Documents\DarkestMoment\excel2json\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity 2019.1.9\projects\darkestMoment\excel2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4520E4E-50B1-4F28-BE6C-E7EDD5E356EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B89033-1A47-469C-852C-D9606E7BC9BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -91,15 +91,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>letter5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>life</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>letter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +428,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -484,7 +484,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>

--- a/excel2json/excel/ItemConfig.xlsx
+++ b/excel2json/excel/ItemConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity 2019.1.9\projects\darkestMoment\excel2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B89033-1A47-469C-852C-D9606E7BC9BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5901D23-E705-4B7F-9414-7EBD49556808}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>配置名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增加一条生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>life</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,6 +96,18 @@
   </si>
   <si>
     <t>letter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作人的爱心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type#int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -436,10 +444,11 @@
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="4" width="45.625" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="37.75" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,10 +462,13 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -470,10 +482,13 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -484,13 +499,16 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="b">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -501,13 +519,16 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="b">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -515,12 +536,15 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="b">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>

--- a/excel2json/excel/ItemConfig.xlsx
+++ b/excel2json/excel/ItemConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity 2019.1.9\projects\darkestMoment\excel2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5901D23-E705-4B7F-9414-7EBD49556808}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82051CE-43D8-46F5-9F5A-CF93C72C6638}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>配置名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,14 @@
   </si>
   <si>
     <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情配置名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stroyId#int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -444,11 +452,11 @@
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="4" width="45.625" customWidth="1"/>
-    <col min="5" max="5" width="37.75" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="5" max="6" width="37.75" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,10 +473,13 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -485,10 +496,13 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -504,11 +518,14 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="b">
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -524,11 +541,14 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" t="b">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -544,7 +564,10 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="b">
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5" t="b">
         <v>0</v>
       </c>
     </row>

--- a/excel2json/excel/ItemConfig.xlsx
+++ b/excel2json/excel/ItemConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity 2019.1.9\projects\darkestMoment\excel2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82051CE-43D8-46F5-9F5A-CF93C72C6638}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8C670F-4017-4316-B1AF-FB2B8234683E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel2json/excel/ItemConfig.xlsx
+++ b/excel2json/excel/ItemConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity 2019.1.9\projects\darkestMoment\excel2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8C670F-4017-4316-B1AF-FB2B8234683E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F86408-970E-4847-9DD2-B2C7093AE733}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>配置名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,10 @@
   </si>
   <si>
     <t>stroyId#int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -571,6 +575,95 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
